--- a/natmiOut/OldD2/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>S100a9</t>
   </si>
   <si>
     <t>Tlr4</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>21.6733621847982</v>
+        <v>0.1484325</v>
       </c>
       <c r="H2">
-        <v>21.6733621847982</v>
+        <v>0.296865</v>
       </c>
       <c r="I2">
-        <v>0.8675716357875224</v>
+        <v>0.002488422017888391</v>
       </c>
       <c r="J2">
-        <v>0.8675716357875224</v>
+        <v>0.001661004281353026</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.92619761844537</v>
+        <v>7.930325</v>
       </c>
       <c r="N2">
-        <v>7.92619761844537</v>
+        <v>15.86065</v>
       </c>
       <c r="O2">
-        <v>0.10555607760007</v>
+        <v>0.1037243007717083</v>
       </c>
       <c r="P2">
-        <v>0.10555607760007</v>
+        <v>0.07315997304409949</v>
       </c>
       <c r="Q2">
-        <v>171.7873517328514</v>
+        <v>1.1771179655625</v>
       </c>
       <c r="R2">
-        <v>171.7873517328514</v>
+        <v>4.70847186225</v>
       </c>
       <c r="S2">
-        <v>0.09157745891080736</v>
+        <v>0.0002581098338303968</v>
       </c>
       <c r="T2">
-        <v>0.09157745891080736</v>
+        <v>0.0001215190284499212</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>21.6733621847982</v>
+        <v>0.1484325</v>
       </c>
       <c r="H3">
-        <v>21.6733621847982</v>
+        <v>0.296865</v>
       </c>
       <c r="I3">
-        <v>0.8675716357875224</v>
+        <v>0.002488422017888391</v>
       </c>
       <c r="J3">
-        <v>0.8675716357875224</v>
+        <v>0.001661004281353026</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.05266536845071</v>
+        <v>6.598259666666666</v>
       </c>
       <c r="N3">
-        <v>6.05266536845071</v>
+        <v>19.794779</v>
       </c>
       <c r="O3">
-        <v>0.08060556222224891</v>
+        <v>0.08630161692429571</v>
       </c>
       <c r="P3">
-        <v>0.08060556222224891</v>
+        <v>0.09130681895470279</v>
       </c>
       <c r="Q3">
-        <v>131.1816087138173</v>
+        <v>0.9793961779724999</v>
       </c>
       <c r="R3">
-        <v>131.1816087138173</v>
+        <v>5.876377067835</v>
       </c>
       <c r="S3">
-        <v>0.0699310994707294</v>
+        <v>0.0002147548437337868</v>
       </c>
       <c r="T3">
-        <v>0.0699310994707294</v>
+        <v>0.000151661017200487</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>21.6733621847982</v>
+        <v>0.1484325</v>
       </c>
       <c r="H4">
-        <v>21.6733621847982</v>
+        <v>0.296865</v>
       </c>
       <c r="I4">
-        <v>0.8675716357875224</v>
+        <v>0.002488422017888391</v>
       </c>
       <c r="J4">
-        <v>0.8675716357875224</v>
+        <v>0.001661004281353026</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.7776481965349</v>
+        <v>26.823721</v>
       </c>
       <c r="N4">
-        <v>26.7776481965349</v>
+        <v>80.471163</v>
       </c>
       <c r="O4">
-        <v>0.3566077515406694</v>
+        <v>0.3508395563637543</v>
       </c>
       <c r="P4">
-        <v>0.3566077515406694</v>
+        <v>0.371187064584827</v>
       </c>
       <c r="Q4">
-        <v>580.3616678206092</v>
+        <v>3.9815119673325</v>
       </c>
       <c r="R4">
-        <v>580.3616678206092</v>
+        <v>23.889071803995</v>
       </c>
       <c r="S4">
-        <v>0.3093827703386489</v>
+        <v>0.0008730368768017612</v>
       </c>
       <c r="T4">
-        <v>0.3093827703386489</v>
+        <v>0.0006165433034582599</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>21.6733621847982</v>
+        <v>0.1484325</v>
       </c>
       <c r="H5">
-        <v>21.6733621847982</v>
+        <v>0.296865</v>
       </c>
       <c r="I5">
-        <v>0.8675716357875224</v>
+        <v>0.002488422017888391</v>
       </c>
       <c r="J5">
-        <v>0.8675716357875224</v>
+        <v>0.001661004281353026</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.7170222531036</v>
+        <v>22.88541033333333</v>
       </c>
       <c r="N5">
-        <v>22.7170222531036</v>
+        <v>68.65623099999999</v>
       </c>
       <c r="O5">
-        <v>0.3025309081634334</v>
+        <v>0.2993286132281626</v>
       </c>
       <c r="P5">
-        <v>0.3025309081634334</v>
+        <v>0.3166886608852391</v>
       </c>
       <c r="Q5">
-        <v>492.3542510516348</v>
+        <v>3.396938669302499</v>
       </c>
       <c r="R5">
-        <v>492.3542510516348</v>
+        <v>20.381632015815</v>
       </c>
       <c r="S5">
-        <v>0.2624672348716346</v>
+        <v>0.0007448559117409579</v>
       </c>
       <c r="T5">
-        <v>0.2624672348716346</v>
+        <v>0.0005260212215863388</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>21.6733621847982</v>
+        <v>0.1484325</v>
       </c>
       <c r="H6">
-        <v>21.6733621847982</v>
+        <v>0.296865</v>
       </c>
       <c r="I6">
-        <v>0.8675716357875224</v>
+        <v>0.002488422017888391</v>
       </c>
       <c r="J6">
-        <v>0.8675716357875224</v>
+        <v>0.001661004281353026</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.01702321356988</v>
+        <v>7.575090333333333</v>
       </c>
       <c r="N6">
-        <v>7.01702321356988</v>
+        <v>22.725271</v>
       </c>
       <c r="O6">
-        <v>0.09344826895678034</v>
+        <v>0.09907802619785785</v>
       </c>
       <c r="P6">
-        <v>0.09344826895678034</v>
+        <v>0.1048242167742089</v>
       </c>
       <c r="Q6">
-        <v>152.0824855668366</v>
+        <v>1.1243895959025</v>
       </c>
       <c r="R6">
-        <v>152.0824855668366</v>
+        <v>6.746337575415</v>
       </c>
       <c r="S6">
-        <v>0.08107306756034627</v>
+        <v>0.0002465479418796722</v>
       </c>
       <c r="T6">
-        <v>0.08107306756034627</v>
+        <v>0.0001741134728514386</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>21.6733621847982</v>
+        <v>0.1484325</v>
       </c>
       <c r="H7">
-        <v>21.6733621847982</v>
+        <v>0.296865</v>
       </c>
       <c r="I7">
-        <v>0.8675716357875224</v>
+        <v>0.002488422017888391</v>
       </c>
       <c r="J7">
-        <v>0.8675716357875224</v>
+        <v>0.001661004281353026</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.59936520618204</v>
+        <v>4.6429995</v>
       </c>
       <c r="N7">
-        <v>4.59936520618204</v>
+        <v>9.285999</v>
       </c>
       <c r="O7">
-        <v>0.06125143151679791</v>
+        <v>0.06072788651422123</v>
       </c>
       <c r="P7">
-        <v>0.06125143151679791</v>
+        <v>0.04283326575692263</v>
       </c>
       <c r="Q7">
-        <v>99.68370793374241</v>
+        <v>0.68917202328375</v>
       </c>
       <c r="R7">
-        <v>99.68370793374241</v>
+        <v>2.756688093135</v>
       </c>
       <c r="S7">
-        <v>0.05314000463535577</v>
+        <v>0.0001511166099018156</v>
       </c>
       <c r="T7">
-        <v>0.05314000463535577</v>
+        <v>7.114623780658046E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.30827770609634</v>
+        <v>53.62779399999999</v>
       </c>
       <c r="H8">
-        <v>3.30827770609634</v>
+        <v>160.883382</v>
       </c>
       <c r="I8">
-        <v>0.1324283642124775</v>
+        <v>0.89905231913754</v>
       </c>
       <c r="J8">
-        <v>0.1324283642124775</v>
+        <v>0.9001666963116378</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.92619761844537</v>
+        <v>7.930325</v>
       </c>
       <c r="N8">
-        <v>7.92619761844537</v>
+        <v>15.86065</v>
       </c>
       <c r="O8">
-        <v>0.10555607760007</v>
+        <v>0.1037243007717083</v>
       </c>
       <c r="P8">
-        <v>0.10555607760007</v>
+        <v>0.07315997304409949</v>
       </c>
       <c r="Q8">
-        <v>26.22206287521672</v>
+        <v>425.28583545305</v>
       </c>
       <c r="R8">
-        <v>26.22206287521672</v>
+        <v>2551.715012718299</v>
       </c>
       <c r="S8">
-        <v>0.01397861868926261</v>
+        <v>0.09325357315972412</v>
       </c>
       <c r="T8">
-        <v>0.01397861868926261</v>
+        <v>0.06585617123735552</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.30827770609634</v>
+        <v>53.62779399999999</v>
       </c>
       <c r="H9">
-        <v>3.30827770609634</v>
+        <v>160.883382</v>
       </c>
       <c r="I9">
-        <v>0.1324283642124775</v>
+        <v>0.89905231913754</v>
       </c>
       <c r="J9">
-        <v>0.1324283642124775</v>
+        <v>0.9001666963116378</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.05266536845071</v>
+        <v>6.598259666666666</v>
       </c>
       <c r="N9">
-        <v>6.05266536845071</v>
+        <v>19.794779</v>
       </c>
       <c r="O9">
-        <v>0.08060556222224891</v>
+        <v>0.08630161692429571</v>
       </c>
       <c r="P9">
-        <v>0.08060556222224891</v>
+        <v>0.09130681895470279</v>
       </c>
       <c r="Q9">
-        <v>20.02389790090687</v>
+        <v>353.8501101625086</v>
       </c>
       <c r="R9">
-        <v>20.02389790090687</v>
+        <v>3184.650991462578</v>
       </c>
       <c r="S9">
-        <v>0.0106744627515195</v>
+        <v>0.07758966884110763</v>
       </c>
       <c r="T9">
-        <v>0.0106744627515195</v>
+        <v>0.08219135756917964</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.30827770609634</v>
+        <v>53.62779399999999</v>
       </c>
       <c r="H10">
-        <v>3.30827770609634</v>
+        <v>160.883382</v>
       </c>
       <c r="I10">
-        <v>0.1324283642124775</v>
+        <v>0.89905231913754</v>
       </c>
       <c r="J10">
-        <v>0.1324283642124775</v>
+        <v>0.9001666963116378</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.7776481965349</v>
+        <v>26.823721</v>
       </c>
       <c r="N10">
-        <v>26.7776481965349</v>
+        <v>80.471163</v>
       </c>
       <c r="O10">
-        <v>0.3566077515406694</v>
+        <v>0.3508395563637543</v>
       </c>
       <c r="P10">
-        <v>0.3566077515406694</v>
+        <v>0.371187064584827</v>
       </c>
       <c r="Q10">
-        <v>88.58789655028728</v>
+        <v>1438.496984101474</v>
       </c>
       <c r="R10">
-        <v>88.58789655028728</v>
+        <v>12946.47285691327</v>
       </c>
       <c r="S10">
-        <v>0.04722498120202046</v>
+        <v>0.315423116794019</v>
       </c>
       <c r="T10">
-        <v>0.04722498120202046</v>
+        <v>0.3341302336409383</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.30827770609634</v>
+        <v>53.62779399999999</v>
       </c>
       <c r="H11">
-        <v>3.30827770609634</v>
+        <v>160.883382</v>
       </c>
       <c r="I11">
-        <v>0.1324283642124775</v>
+        <v>0.89905231913754</v>
       </c>
       <c r="J11">
-        <v>0.1324283642124775</v>
+        <v>0.9001666963116378</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.7170222531036</v>
+        <v>22.88541033333333</v>
       </c>
       <c r="N11">
-        <v>22.7170222531036</v>
+        <v>68.65623099999999</v>
       </c>
       <c r="O11">
-        <v>0.3025309081634334</v>
+        <v>0.2993286132281626</v>
       </c>
       <c r="P11">
-        <v>0.3025309081634334</v>
+        <v>0.3166886608852391</v>
       </c>
       <c r="Q11">
-        <v>75.15421826883708</v>
+        <v>1227.294070961471</v>
       </c>
       <c r="R11">
-        <v>75.15421826883708</v>
+        <v>11045.64663865324</v>
       </c>
       <c r="S11">
-        <v>0.04006367329179875</v>
+        <v>0.2691120839070033</v>
       </c>
       <c r="T11">
-        <v>0.04006367329179875</v>
+        <v>0.2850725856284223</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.30827770609634</v>
+        <v>53.62779399999999</v>
       </c>
       <c r="H12">
-        <v>3.30827770609634</v>
+        <v>160.883382</v>
       </c>
       <c r="I12">
-        <v>0.1324283642124775</v>
+        <v>0.89905231913754</v>
       </c>
       <c r="J12">
-        <v>0.1324283642124775</v>
+        <v>0.9001666963116378</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.01702321356988</v>
+        <v>7.575090333333333</v>
       </c>
       <c r="N12">
-        <v>7.01702321356988</v>
+        <v>22.725271</v>
       </c>
       <c r="O12">
-        <v>0.09344826895678034</v>
+        <v>0.09907802619785785</v>
       </c>
       <c r="P12">
-        <v>0.09344826895678034</v>
+        <v>0.1048242167742089</v>
       </c>
       <c r="Q12">
-        <v>23.21426146061373</v>
+        <v>406.2353839273912</v>
       </c>
       <c r="R12">
-        <v>23.21426146061373</v>
+        <v>3656.118455346521</v>
       </c>
       <c r="S12">
-        <v>0.01237520139643406</v>
+        <v>0.08907632922875405</v>
       </c>
       <c r="T12">
-        <v>0.01237520139643406</v>
+        <v>0.09435926890709458</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1177 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>53.62779399999999</v>
+      </c>
+      <c r="H13">
+        <v>160.883382</v>
+      </c>
+      <c r="I13">
+        <v>0.89905231913754</v>
+      </c>
+      <c r="J13">
+        <v>0.9001666963116378</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.6429995</v>
+      </c>
+      <c r="N13">
+        <v>9.285999</v>
+      </c>
+      <c r="O13">
+        <v>0.06072788651422123</v>
+      </c>
+      <c r="P13">
+        <v>0.04283326575692263</v>
+      </c>
+      <c r="Q13">
+        <v>248.993820728103</v>
+      </c>
+      <c r="R13">
+        <v>1493.962924368618</v>
+      </c>
+      <c r="S13">
+        <v>0.05459754720693194</v>
+      </c>
+      <c r="T13">
+        <v>0.03855707932864745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.045879</v>
+      </c>
+      <c r="H14">
+        <v>15.137637</v>
+      </c>
+      <c r="I14">
+        <v>0.08459250099001671</v>
+      </c>
+      <c r="J14">
+        <v>0.08469735356666491</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>7.930325</v>
+      </c>
+      <c r="N14">
+        <v>15.86065</v>
+      </c>
+      <c r="O14">
+        <v>0.1037243007717083</v>
+      </c>
+      <c r="P14">
+        <v>0.07315997304409949</v>
+      </c>
+      <c r="Q14">
+        <v>40.015460380675</v>
+      </c>
+      <c r="R14">
+        <v>240.09276228405</v>
+      </c>
+      <c r="S14">
+        <v>0.008774298015719528</v>
+      </c>
+      <c r="T14">
+        <v>0.006196456103843769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.045879</v>
+      </c>
+      <c r="H15">
+        <v>15.137637</v>
+      </c>
+      <c r="I15">
+        <v>0.08459250099001671</v>
+      </c>
+      <c r="J15">
+        <v>0.08469735356666491</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.598259666666666</v>
+      </c>
+      <c r="N15">
+        <v>19.794779</v>
+      </c>
+      <c r="O15">
+        <v>0.08630161692429571</v>
+      </c>
+      <c r="P15">
+        <v>0.09130681895470279</v>
+      </c>
+      <c r="Q15">
+        <v>33.29401988858034</v>
+      </c>
+      <c r="R15">
+        <v>299.646178997223</v>
+      </c>
+      <c r="S15">
+        <v>0.007300469615108527</v>
+      </c>
+      <c r="T15">
+        <v>0.007733445928053924</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.045879</v>
+      </c>
+      <c r="H16">
+        <v>15.137637</v>
+      </c>
+      <c r="I16">
+        <v>0.08459250099001671</v>
+      </c>
+      <c r="J16">
+        <v>0.08469735356666491</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>26.823721</v>
+      </c>
+      <c r="N16">
+        <v>80.471163</v>
+      </c>
+      <c r="O16">
+        <v>0.3508395563637543</v>
+      </c>
+      <c r="P16">
+        <v>0.371187064584827</v>
+      </c>
+      <c r="Q16">
+        <v>135.349250495759</v>
+      </c>
+      <c r="R16">
+        <v>1218.143254461831</v>
+      </c>
+      <c r="S16">
+        <v>0.02967839551903791</v>
+      </c>
+      <c r="T16">
+        <v>0.03143856204851358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.045879</v>
+      </c>
+      <c r="H17">
+        <v>15.137637</v>
+      </c>
+      <c r="I17">
+        <v>0.08459250099001671</v>
+      </c>
+      <c r="J17">
+        <v>0.08469735356666491</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>22.88541033333333</v>
+      </c>
+      <c r="N17">
+        <v>68.65623099999999</v>
+      </c>
+      <c r="O17">
+        <v>0.2993286132281626</v>
+      </c>
+      <c r="P17">
+        <v>0.3166886608852391</v>
+      </c>
+      <c r="Q17">
+        <v>115.4770114073497</v>
+      </c>
+      <c r="R17">
+        <v>1039.293102666147</v>
+      </c>
+      <c r="S17">
+        <v>0.02532095601084367</v>
+      </c>
+      <c r="T17">
+        <v>0.02682269148155074</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.045879</v>
+      </c>
+      <c r="H18">
+        <v>15.137637</v>
+      </c>
+      <c r="I18">
+        <v>0.08459250099001671</v>
+      </c>
+      <c r="J18">
+        <v>0.08469735356666491</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.575090333333333</v>
+      </c>
+      <c r="N18">
+        <v>22.725271</v>
+      </c>
+      <c r="O18">
+        <v>0.09907802619785785</v>
+      </c>
+      <c r="P18">
+        <v>0.1048242167742089</v>
+      </c>
+      <c r="Q18">
+        <v>38.22298923606967</v>
+      </c>
+      <c r="R18">
+        <v>344.006903124627</v>
+      </c>
+      <c r="S18">
+        <v>0.008381258029231191</v>
+      </c>
+      <c r="T18">
+        <v>0.008878333750473895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.045879</v>
+      </c>
+      <c r="H19">
+        <v>15.137637</v>
+      </c>
+      <c r="I19">
+        <v>0.08459250099001671</v>
+      </c>
+      <c r="J19">
+        <v>0.08469735356666491</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.6429995</v>
+      </c>
+      <c r="N19">
+        <v>9.285999</v>
+      </c>
+      <c r="O19">
+        <v>0.06072788651422123</v>
+      </c>
+      <c r="P19">
+        <v>0.04283326575692263</v>
+      </c>
+      <c r="Q19">
+        <v>23.4280136740605</v>
+      </c>
+      <c r="R19">
+        <v>140.568082044363</v>
+      </c>
+      <c r="S19">
+        <v>0.005137123800075882</v>
+      </c>
+      <c r="T19">
+        <v>0.003627864254228997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.7540426666666667</v>
+      </c>
+      <c r="H20">
+        <v>2.262128</v>
+      </c>
+      <c r="I20">
+        <v>0.01264127717420787</v>
+      </c>
+      <c r="J20">
+        <v>0.01265694606291937</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>7.930325</v>
+      </c>
+      <c r="N20">
+        <v>15.86065</v>
+      </c>
+      <c r="O20">
+        <v>0.1037243007717083</v>
+      </c>
+      <c r="P20">
+        <v>0.07315997304409949</v>
+      </c>
+      <c r="Q20">
+        <v>5.979803410533334</v>
+      </c>
+      <c r="R20">
+        <v>35.8788204632</v>
+      </c>
+      <c r="S20">
+        <v>0.001311207635756069</v>
+      </c>
+      <c r="T20">
+        <v>0.0009259818327838023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.30827770609634</v>
-      </c>
-      <c r="H13">
-        <v>3.30827770609634</v>
-      </c>
-      <c r="I13">
-        <v>0.1324283642124775</v>
-      </c>
-      <c r="J13">
-        <v>0.1324283642124775</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.59936520618204</v>
-      </c>
-      <c r="N13">
-        <v>4.59936520618204</v>
-      </c>
-      <c r="O13">
-        <v>0.06125143151679791</v>
-      </c>
-      <c r="P13">
-        <v>0.06125143151679791</v>
-      </c>
-      <c r="Q13">
-        <v>15.21597737380724</v>
-      </c>
-      <c r="R13">
-        <v>15.21597737380724</v>
-      </c>
-      <c r="S13">
-        <v>0.008111426881442139</v>
-      </c>
-      <c r="T13">
-        <v>0.008111426881442139</v>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.7540426666666667</v>
+      </c>
+      <c r="H21">
+        <v>2.262128</v>
+      </c>
+      <c r="I21">
+        <v>0.01264127717420787</v>
+      </c>
+      <c r="J21">
+        <v>0.01265694606291937</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.598259666666666</v>
+      </c>
+      <c r="N21">
+        <v>19.794779</v>
+      </c>
+      <c r="O21">
+        <v>0.08630161692429571</v>
+      </c>
+      <c r="P21">
+        <v>0.09130681895470279</v>
+      </c>
+      <c r="Q21">
+        <v>4.975369314412445</v>
+      </c>
+      <c r="R21">
+        <v>44.778323829712</v>
+      </c>
+      <c r="S21">
+        <v>0.001090962660122331</v>
+      </c>
+      <c r="T21">
+        <v>0.001155665482686417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.7540426666666667</v>
+      </c>
+      <c r="H22">
+        <v>2.262128</v>
+      </c>
+      <c r="I22">
+        <v>0.01264127717420787</v>
+      </c>
+      <c r="J22">
+        <v>0.01265694606291937</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>26.823721</v>
+      </c>
+      <c r="N22">
+        <v>80.471163</v>
+      </c>
+      <c r="O22">
+        <v>0.3508395563637543</v>
+      </c>
+      <c r="P22">
+        <v>0.371187064584827</v>
+      </c>
+      <c r="Q22">
+        <v>20.22623011276267</v>
+      </c>
+      <c r="R22">
+        <v>182.036071014864</v>
+      </c>
+      <c r="S22">
+        <v>0.004435060075670343</v>
+      </c>
+      <c r="T22">
+        <v>0.004698094655703524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.7540426666666667</v>
+      </c>
+      <c r="H23">
+        <v>2.262128</v>
+      </c>
+      <c r="I23">
+        <v>0.01264127717420787</v>
+      </c>
+      <c r="J23">
+        <v>0.01265694606291937</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>22.88541033333333</v>
+      </c>
+      <c r="N23">
+        <v>68.65623099999999</v>
+      </c>
+      <c r="O23">
+        <v>0.2993286132281626</v>
+      </c>
+      <c r="P23">
+        <v>0.3166886608852391</v>
+      </c>
+      <c r="Q23">
+        <v>17.25657583550755</v>
+      </c>
+      <c r="R23">
+        <v>155.309182519568</v>
+      </c>
+      <c r="S23">
+        <v>0.003783895965988468</v>
+      </c>
+      <c r="T23">
+        <v>0.004008311299562635</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.7540426666666667</v>
+      </c>
+      <c r="H24">
+        <v>2.262128</v>
+      </c>
+      <c r="I24">
+        <v>0.01264127717420787</v>
+      </c>
+      <c r="J24">
+        <v>0.01265694606291937</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>7.575090333333333</v>
+      </c>
+      <c r="N24">
+        <v>22.725271</v>
+      </c>
+      <c r="O24">
+        <v>0.09907802619785785</v>
+      </c>
+      <c r="P24">
+        <v>0.1048242167742089</v>
+      </c>
+      <c r="Q24">
+        <v>5.711941315187556</v>
+      </c>
+      <c r="R24">
+        <v>51.407471836688</v>
+      </c>
+      <c r="S24">
+        <v>0.00125247279104055</v>
+      </c>
+      <c r="T24">
+        <v>0.001326754457798929</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.7540426666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.262128</v>
+      </c>
+      <c r="I25">
+        <v>0.01264127717420787</v>
+      </c>
+      <c r="J25">
+        <v>0.01265694606291937</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.6429995</v>
+      </c>
+      <c r="N25">
+        <v>9.285999</v>
+      </c>
+      <c r="O25">
+        <v>0.06072788651422123</v>
+      </c>
+      <c r="P25">
+        <v>0.04283326575692263</v>
+      </c>
+      <c r="Q25">
+        <v>3.501019724312</v>
+      </c>
+      <c r="R25">
+        <v>21.006118345872</v>
+      </c>
+      <c r="S25">
+        <v>0.0007676780456301108</v>
+      </c>
+      <c r="T25">
+        <v>0.000542138334384061</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.073099</v>
+      </c>
+      <c r="H26">
+        <v>0.146198</v>
+      </c>
+      <c r="I26">
+        <v>0.001225480680347117</v>
+      </c>
+      <c r="J26">
+        <v>0.0008179997774249227</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>7.930325</v>
+      </c>
+      <c r="N26">
+        <v>15.86065</v>
+      </c>
+      <c r="O26">
+        <v>0.1037243007717083</v>
+      </c>
+      <c r="P26">
+        <v>0.07315997304409949</v>
+      </c>
+      <c r="Q26">
+        <v>0.579698827175</v>
+      </c>
+      <c r="R26">
+        <v>2.3187953087</v>
+      </c>
+      <c r="S26">
+        <v>0.0001271121266782421</v>
+      </c>
+      <c r="T26">
+        <v>5.984484166648673E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>0.073099</v>
+      </c>
+      <c r="H27">
+        <v>0.146198</v>
+      </c>
+      <c r="I27">
+        <v>0.001225480680347117</v>
+      </c>
+      <c r="J27">
+        <v>0.0008179997774249227</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>6.598259666666666</v>
+      </c>
+      <c r="N27">
+        <v>19.794779</v>
+      </c>
+      <c r="O27">
+        <v>0.08630161692429571</v>
+      </c>
+      <c r="P27">
+        <v>0.09130681895470279</v>
+      </c>
+      <c r="Q27">
+        <v>0.4823261833736666</v>
+      </c>
+      <c r="R27">
+        <v>2.893957100241999</v>
+      </c>
+      <c r="S27">
+        <v>0.0001057609642234422</v>
+      </c>
+      <c r="T27">
+        <v>7.468895758232459E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>0.073099</v>
+      </c>
+      <c r="H28">
+        <v>0.146198</v>
+      </c>
+      <c r="I28">
+        <v>0.001225480680347117</v>
+      </c>
+      <c r="J28">
+        <v>0.0008179997774249227</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>26.823721</v>
+      </c>
+      <c r="N28">
+        <v>80.471163</v>
+      </c>
+      <c r="O28">
+        <v>0.3508395563637543</v>
+      </c>
+      <c r="P28">
+        <v>0.371187064584827</v>
+      </c>
+      <c r="Q28">
+        <v>1.960787181379</v>
+      </c>
+      <c r="R28">
+        <v>11.764723088274</v>
+      </c>
+      <c r="S28">
+        <v>0.0004299470982253344</v>
+      </c>
+      <c r="T28">
+        <v>0.000303630936213399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>0.073099</v>
+      </c>
+      <c r="H29">
+        <v>0.146198</v>
+      </c>
+      <c r="I29">
+        <v>0.001225480680347117</v>
+      </c>
+      <c r="J29">
+        <v>0.0008179997774249227</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>22.88541033333333</v>
+      </c>
+      <c r="N29">
+        <v>68.65623099999999</v>
+      </c>
+      <c r="O29">
+        <v>0.2993286132281626</v>
+      </c>
+      <c r="P29">
+        <v>0.3166886608852391</v>
+      </c>
+      <c r="Q29">
+        <v>1.672900609956333</v>
+      </c>
+      <c r="R29">
+        <v>10.037403659738</v>
+      </c>
+      <c r="S29">
+        <v>0.0003668214325862077</v>
+      </c>
+      <c r="T29">
+        <v>0.0002590512541171224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>0.073099</v>
+      </c>
+      <c r="H30">
+        <v>0.146198</v>
+      </c>
+      <c r="I30">
+        <v>0.001225480680347117</v>
+      </c>
+      <c r="J30">
+        <v>0.0008179997774249227</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>7.575090333333333</v>
+      </c>
+      <c r="N30">
+        <v>22.725271</v>
+      </c>
+      <c r="O30">
+        <v>0.09907802619785785</v>
+      </c>
+      <c r="P30">
+        <v>0.1048242167742089</v>
+      </c>
+      <c r="Q30">
+        <v>0.5537315282763333</v>
+      </c>
+      <c r="R30">
+        <v>3.322389169658</v>
+      </c>
+      <c r="S30">
+        <v>0.0001214182069524003</v>
+      </c>
+      <c r="T30">
+        <v>8.574618599004471E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>0.073099</v>
+      </c>
+      <c r="H31">
+        <v>0.146198</v>
+      </c>
+      <c r="I31">
+        <v>0.001225480680347117</v>
+      </c>
+      <c r="J31">
+        <v>0.0008179997774249227</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.6429995</v>
+      </c>
+      <c r="N31">
+        <v>9.285999</v>
+      </c>
+      <c r="O31">
+        <v>0.06072788651422123</v>
+      </c>
+      <c r="P31">
+        <v>0.04283326575692263</v>
+      </c>
+      <c r="Q31">
+        <v>0.3393986204505</v>
+      </c>
+      <c r="R31">
+        <v>1.357594481802</v>
+      </c>
+      <c r="S31">
+        <v>7.442085168149036E-05</v>
+      </c>
+      <c r="T31">
+        <v>3.503760185554528E-05</v>
       </c>
     </row>
   </sheetData>
